--- a/Utilities/mismatched_titles.xlsx
+++ b/Utilities/mismatched_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UpdateTitlesJson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UpdateTitlesJson\NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA7C8B2-C82F-429E-A4E4-BADD69A7CF08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC97B2E-7337-4D92-8C0F-B58CF6C9D10C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2310" windowWidth="28800" windowHeight="13890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alphabet" sheetId="1" r:id="rId1"/>
@@ -776,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -936,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B311CF68-B121-4B84-9341-CF2C873B4001}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353A76EF-FBBF-45D0-BB9C-B17AF0372009}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
